--- a/Team-Data/2013-14/12-15-2013-14.xlsx
+++ b/Team-Data/2013-14/12-15-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -765,7 +832,7 @@
         <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -774,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -801,7 +868,7 @@
         <v>15</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>26</v>
@@ -816,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -929,13 +996,13 @@
         <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
@@ -956,7 +1023,7 @@
         <v>24</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>25</v>
@@ -965,31 +1032,31 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>24</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU3" t="n">
         <v>30</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>24</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1120,7 +1187,7 @@
         <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1147,28 +1214,28 @@
         <v>5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>21</v>
       </c>
       <c r="AS4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT4" t="n">
         <v>22</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>23</v>
       </c>
       <c r="AU4" t="n">
         <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW4" t="n">
         <v>27</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY4" t="n">
         <v>7</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-2.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1338,10 +1405,10 @@
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV5" t="n">
         <v>2</v>
@@ -1353,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>-1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>20</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
         <v>20</v>
       </c>
       <c r="AH6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
         <v>27</v>
@@ -1514,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-5.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG7" t="n">
         <v>23</v>
@@ -1681,7 +1748,7 @@
         <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
         <v>18</v>
@@ -1696,7 +1763,7 @@
         <v>20</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
         <v>16</v>
@@ -1717,7 +1784,7 @@
         <v>25</v>
       </c>
       <c r="AY7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
         <v>6</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1854,7 +1921,7 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>10</v>
@@ -1869,19 +1936,19 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>26</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR8" t="n">
         <v>25</v>
       </c>
       <c r="AS8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT8" t="n">
         <v>25</v>
@@ -1893,7 +1960,7 @@
         <v>12</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>24</v>
@@ -1902,13 +1969,13 @@
         <v>5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>26</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>0.609</v>
+        <v>0.591</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1961,52 +2028,52 @@
         <v>84.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L9" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M9" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N9" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O9" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P9" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.71</v>
+        <v>0.708</v>
       </c>
       <c r="R9" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S9" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="T9" t="n">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="U9" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V9" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA9" t="n">
         <v>21.4</v>
@@ -2015,16 +2082,16 @@
         <v>102.1</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
         <v>8</v>
@@ -2033,31 +2100,31 @@
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK9" t="n">
         <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR9" t="n">
         <v>5</v>
@@ -2072,28 +2139,28 @@
         <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AW9" t="n">
         <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
         <v>22</v>
       </c>
       <c r="AZ9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
         <v>12</v>
       </c>
       <c r="BC9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -2122,118 +2189,118 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
         <v>11</v>
       </c>
       <c r="F10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.44</v>
+        <v>0.458</v>
       </c>
       <c r="H10" t="n">
-        <v>48.6</v>
+        <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>38.4</v>
+        <v>38.2</v>
       </c>
       <c r="J10" t="n">
-        <v>85</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M10" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.31</v>
+        <v>0.314</v>
       </c>
       <c r="O10" t="n">
         <v>17</v>
       </c>
       <c r="P10" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q10" t="n">
         <v>0.672</v>
       </c>
       <c r="R10" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
-        <v>44.4</v>
+        <v>44</v>
       </c>
       <c r="U10" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V10" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA10" t="n">
         <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
         <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>8</v>
@@ -2248,16 +2315,16 @@
         <v>25</v>
       </c>
       <c r="AT10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX10" t="n">
         <v>11</v>
@@ -2266,13 +2333,13 @@
         <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB10" t="n">
         <v>16</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>15</v>
       </c>
       <c r="BC10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -2304,88 +2371,88 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.52</v>
+        <v>0.542</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38.3</v>
+        <v>38.5</v>
       </c>
       <c r="J11" t="n">
-        <v>82.3</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.466</v>
+        <v>0.467</v>
       </c>
       <c r="L11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M11" t="n">
         <v>23.5</v>
       </c>
       <c r="N11" t="n">
-        <v>0.416</v>
+        <v>0.412</v>
       </c>
       <c r="O11" t="n">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="P11" t="n">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.732</v>
+        <v>0.734</v>
       </c>
       <c r="R11" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="T11" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="V11" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="W11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z11" t="n">
         <v>22.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AB11" t="n">
         <v>103</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -2394,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
@@ -2406,19 +2473,19 @@
         <v>5</v>
       </c>
       <c r="AL11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM11" t="n">
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP11" t="n">
         <v>17</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>15</v>
       </c>
       <c r="AQ11" t="n">
         <v>22</v>
@@ -2433,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
         <v>28</v>
@@ -2454,7 +2521,7 @@
         <v>17</v>
       </c>
       <c r="BB11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -2486,85 +2553,85 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" t="n">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>0.64</v>
+        <v>0.667</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="J12" t="n">
-        <v>78.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.472</v>
+        <v>0.475</v>
       </c>
       <c r="L12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="M12" t="n">
         <v>27.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.357</v>
+        <v>0.361</v>
       </c>
       <c r="O12" t="n">
         <v>22.7</v>
       </c>
       <c r="P12" t="n">
-        <v>32.6</v>
+        <v>32.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.697</v>
+        <v>0.702</v>
       </c>
       <c r="R12" t="n">
         <v>11.3</v>
       </c>
       <c r="S12" t="n">
-        <v>35.2</v>
+        <v>35.4</v>
       </c>
       <c r="T12" t="n">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="U12" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V12" t="n">
         <v>17.7</v>
       </c>
       <c r="W12" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
         <v>25.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>107</v>
+        <v>107.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2576,10 +2643,10 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2615,16 +2682,16 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13" t="n">
         <v>1</v>
@@ -2779,10 +2846,10 @@
         <v>12</v>
       </c>
       <c r="AO13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
@@ -2794,13 +2861,13 @@
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -2934,10 +3001,10 @@
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
@@ -2952,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
         <v>23</v>
@@ -2982,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
         <v>13</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -3110,22 +3177,22 @@
         <v>-3</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG15" t="n">
         <v>14</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
         <v>5</v>
@@ -3140,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="AN15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
         <v>26</v>
@@ -3185,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.435</v>
+        <v>0.455</v>
       </c>
       <c r="H16" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I16" t="n">
         <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>80.8</v>
+        <v>80.7</v>
       </c>
       <c r="K16" t="n">
         <v>0.451</v>
@@ -3247,34 +3314,34 @@
         <v>0.34</v>
       </c>
       <c r="O16" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P16" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.767</v>
+        <v>0.769</v>
       </c>
       <c r="R16" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="n">
-        <v>30.7</v>
+        <v>30.5</v>
       </c>
       <c r="T16" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U16" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="V16" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="W16" t="n">
         <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y16" t="n">
         <v>5.2</v>
@@ -3283,28 +3350,28 @@
         <v>19.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB16" t="n">
         <v>93.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>18</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>20</v>
@@ -3313,7 +3380,7 @@
         <v>25</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,34 +3389,34 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>20</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>12</v>
       </c>
       <c r="AR16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
         <v>24</v>
       </c>
       <c r="AT16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW16" t="n">
         <v>22</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>23</v>
       </c>
       <c r="AX16" t="n">
         <v>27</v>
@@ -3367,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>7</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3489,7 +3556,7 @@
         <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3510,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3531,7 +3598,7 @@
         <v>18</v>
       </c>
       <c r="AW17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX17" t="n">
         <v>8</v>
@@ -3546,10 +3613,10 @@
         <v>11</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
@@ -3686,7 +3753,7 @@
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3695,10 +3762,10 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS18" t="n">
         <v>28</v>
@@ -3707,10 +3774,10 @@
         <v>28</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -3760,97 +3827,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
         <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.478</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J19" t="n">
-        <v>88.8</v>
+        <v>89.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="L19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.342</v>
+        <v>0.336</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="P19" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S19" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T19" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U19" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V19" t="n">
-        <v>14.4</v>
+        <v>14.7</v>
       </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z19" t="n">
         <v>16.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>105.5</v>
+        <v>105.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>12</v>
@@ -3868,7 +3935,7 @@
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3877,7 +3944,7 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3892,16 +3959,16 @@
         <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
         <v>1</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" t="n">
         <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.524</v>
       </c>
       <c r="H20" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I20" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J20" t="n">
-        <v>86.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="K20" t="n">
         <v>0.452</v>
@@ -3969,40 +4036,40 @@
         <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>17.1</v>
+        <v>16.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.388</v>
+        <v>0.395</v>
       </c>
       <c r="O20" t="n">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="P20" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.774</v>
+        <v>0.779</v>
       </c>
       <c r="R20" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="S20" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="T20" t="n">
-        <v>42.9</v>
+        <v>43.4</v>
       </c>
       <c r="U20" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V20" t="n">
         <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y20" t="n">
         <v>6.3</v>
@@ -4011,22 +4078,22 @@
         <v>21.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>103</v>
+        <v>103.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -4041,7 +4108,7 @@
         <v>3</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>23</v>
@@ -4050,16 +4117,16 @@
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>2</v>
@@ -4068,31 +4135,31 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA20" t="n">
         <v>18</v>
       </c>
       <c r="BB20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BC20" t="n">
         <v>13</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4211,7 +4278,7 @@
         <v>26</v>
       </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
         <v>18</v>
@@ -4244,7 +4311,7 @@
         <v>8</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4262,7 +4329,7 @@
         <v>7</v>
       </c>
       <c r="AX21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>7</v>
@@ -4277,7 +4344,7 @@
         <v>25</v>
       </c>
       <c r="BC21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -4306,97 +4373,97 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
       </c>
       <c r="G22" t="n">
-        <v>0.826</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I22" t="n">
         <v>38.8</v>
       </c>
       <c r="J22" t="n">
-        <v>83.09999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L22" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M22" t="n">
         <v>18.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.334</v>
+        <v>0.337</v>
       </c>
       <c r="O22" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="P22" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.821</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R22" t="n">
         <v>11.4</v>
       </c>
       <c r="S22" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="T22" t="n">
-        <v>47.3</v>
+        <v>47.4</v>
       </c>
       <c r="U22" t="n">
         <v>21.9</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X22" t="n">
         <v>6.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z22" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD22" t="n">
         <v>22</v>
       </c>
-      <c r="AA22" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>105.7</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>15</v>
-      </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>6</v>
@@ -4414,7 +4481,7 @@
         <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4441,10 +4508,10 @@
         <v>26</v>
       </c>
       <c r="AW22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>10</v>
@@ -4453,13 +4520,13 @@
         <v>24</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
         <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -4488,19 +4555,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G23" t="n">
-        <v>0.292</v>
+        <v>0.304</v>
       </c>
       <c r="H23" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I23" t="n">
         <v>37</v>
@@ -4515,46 +4582,46 @@
         <v>7.7</v>
       </c>
       <c r="M23" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="N23" t="n">
-        <v>0.354</v>
+        <v>0.357</v>
       </c>
       <c r="O23" t="n">
         <v>15.9</v>
       </c>
       <c r="P23" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.759</v>
+        <v>0.765</v>
       </c>
       <c r="R23" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T23" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W23" t="n">
         <v>8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y23" t="n">
         <v>5.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA23" t="n">
         <v>18.6</v>
@@ -4566,19 +4633,19 @@
         <v>-4.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
         <v>18</v>
@@ -4605,34 +4672,34 @@
         <v>25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
         <v>21</v>
       </c>
       <c r="AU23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY23" t="n">
         <v>23</v>
       </c>
-      <c r="AW23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>24</v>
-      </c>
       <c r="AZ23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -4784,13 +4851,13 @@
         <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
         <v>6</v>
@@ -4805,10 +4872,10 @@
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
         <v>9</v>
       </c>
       <c r="G25" t="n">
-        <v>0.609</v>
+        <v>0.591</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J25" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L25" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="O25" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P25" t="n">
-        <v>23.2</v>
+        <v>22.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.742</v>
+        <v>0.746</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7</v>
+        <v>10.9</v>
       </c>
       <c r="S25" t="n">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U25" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="V25" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X25" t="n">
         <v>5</v>
@@ -4918,31 +4985,31 @@
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>102.6</v>
+        <v>102.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="n">
         <v>8</v>
       </c>
       <c r="AH25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>11</v>
@@ -4960,10 +5027,10 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
         <v>14</v>
@@ -4972,22 +5039,22 @@
         <v>21</v>
       </c>
       <c r="AR25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
         <v>20</v>
       </c>
       <c r="AU25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -4999,13 +5066,13 @@
         <v>19</v>
       </c>
       <c r="BA25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB25" t="n">
         <v>11</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -5034,85 +5101,85 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.84</v>
+        <v>0.833</v>
       </c>
       <c r="H26" t="n">
-        <v>48.4</v>
+        <v>48.2</v>
       </c>
       <c r="I26" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="J26" t="n">
-        <v>86.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="M26" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.412</v>
+        <v>0.419</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S26" t="n">
         <v>32.6</v>
       </c>
       <c r="T26" t="n">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="U26" t="n">
         <v>23.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W26" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.9</v>
+        <v>107.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5124,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5133,7 +5200,7 @@
         <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>2</v>
@@ -5142,13 +5209,13 @@
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5157,7 +5224,7 @@
         <v>4</v>
       </c>
       <c r="AS26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT26" t="n">
         <v>5</v>
@@ -5166,13 +5233,13 @@
         <v>6</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -5216,97 +5283,97 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
         <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>0.318</v>
+        <v>0.286</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L27" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="M27" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.331</v>
+        <v>0.334</v>
       </c>
       <c r="O27" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="P27" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.791</v>
+        <v>0.788</v>
       </c>
       <c r="R27" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="S27" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="T27" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U27" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V27" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W27" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X27" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y27" t="n">
         <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.5</v>
+        <v>99.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.5</v>
+        <v>-3.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5315,13 +5382,13 @@
         <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>19</v>
       </c>
       <c r="AM27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5330,25 +5397,25 @@
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>5</v>
       </c>
       <c r="AR27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT27" t="n">
         <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW27" t="n">
         <v>11</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5369,7 +5436,7 @@
         <v>17</v>
       </c>
       <c r="BC27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>10.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5503,7 +5570,7 @@
         <v>8</v>
       </c>
       <c r="AM28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
         <v>3</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>0.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE29" t="n">
         <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG29" t="n">
         <v>20</v>
@@ -5679,7 +5746,7 @@
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>16</v>
@@ -5688,7 +5755,7 @@
         <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5703,7 +5770,7 @@
         <v>7</v>
       </c>
       <c r="AS29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT29" t="n">
         <v>16</v>
@@ -5715,13 +5782,13 @@
         <v>13</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>14</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>26</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF30" t="n">
         <v>30</v>
@@ -5852,7 +5919,7 @@
         <v>29</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5861,7 +5928,7 @@
         <v>19</v>
       </c>
       <c r="AK30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>27</v>
@@ -5870,10 +5937,10 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP30" t="n">
         <v>19</v>
@@ -5909,7 +5976,7 @@
         <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-1.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>20</v>
       </c>
       <c r="AF31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
         <v>20</v>
@@ -6058,16 +6125,16 @@
         <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT31" t="n">
         <v>19</v>
@@ -6082,7 +6149,7 @@
         <v>6</v>
       </c>
       <c r="AX31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-15-2013-14</t>
+          <t>2013-12-15</t>
         </is>
       </c>
     </row>
